--- a/server/pharmadex2/src/test/resources/LegacyDataSample.xlsx
+++ b/server/pharmadex2/src/test/resources/LegacyDataSample.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F37DB4F-AA57-4407-94C5-F094558AAB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3970FCE7-E2BF-48BB-82AD-68B6B52C6C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67E9ECC6-F1B3-49E0-A813-5DDDBC16958C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="legacy.pharmacies" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="alternative">Sheet1!$B:$B</definedName>
-    <definedName name="expiration">Sheet1!$E:$E</definedName>
-    <definedName name="name">Sheet1!$A:$A</definedName>
-    <definedName name="register">Sheet1!$C:$C</definedName>
-    <definedName name="registration">Sheet1!$D:$D</definedName>
+    <definedName name="alternative">legacy.pharmacies!$B:$B</definedName>
+    <definedName name="expiration">legacy.pharmacies!$E:$E</definedName>
+    <definedName name="name">legacy.pharmacies!$A:$A</definedName>
+    <definedName name="register">legacy.pharmacies!$C:$C</definedName>
+    <definedName name="registration">legacy.pharmacies!$D:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Аптека Лев и Кастрюля</t>
   </si>
   <si>
-    <t>12345/2015</t>
-  </si>
-  <si>
     <t>Moon and Eggs Pharmacy</t>
   </si>
   <si>
@@ -72,6 +69,31 @@
   </si>
   <si>
     <t>43211/2016</t>
+  </si>
+  <si>
+    <t>2121/222221</t>
+  </si>
+  <si>
+    <t>Das Elephant Pharmacy</t>
+  </si>
+  <si>
+    <t>Аптека "Слон"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	RTA should upload a QuanTB files and classify each one. Some classifiers should be read from QuanTB file, some entered manually using pre-defined choices.
+2.	The medicines binding as well as other classifiers is responsibility of RTA; however, the possibility to validate should be provided to the Data Quality Officer.
+3.	The process of data upload should be built as sequency of electronic forms :
+3.1.	QuanTB file details
+3.2.	Procurement and funding data
+3.3.	Stock in order check
+4.	Should be provided a separate form with the list of uploaded files. The columns at least – ID of file, data of uploading and data of validation by the Data Quality Officer
+5.	For the Officer should be provided:
+5.1.	Possibility to manage RTAs as users
+5.2.	Access to all uploaded files
+5.3.	Additional columns
+5.3.1.	Country
+5.3.2.	RTA name
+5.4.	Functionality to review the data  </t>
   </si>
 </sst>
 </file>
@@ -117,12 +139,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9947C9-5A5C-4289-B0CD-DCA8085BE548}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,9 +504,10 @@
     <col min="3" max="3" width="30.109375" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,15 +524,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2" s="4">
+        <v>3720311050027</v>
       </c>
       <c r="D2" s="2">
         <v>42016</v>
@@ -514,21 +541,41 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>42522</v>
       </c>
       <c r="E3" s="2">
         <v>44743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43617</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45108</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
